--- a/Biomass_composition.xlsx
+++ b/Biomass_composition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonca\OneDrive\Documentos\GitHub\UC_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FECA47C-44FB-480C-8AEF-5414375DD21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC1642D-6F73-46DE-813D-6A9753AE1F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C94ABC85-F8B5-4533-8961-D8998B419AEF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C94ABC85-F8B5-4533-8961-D8998B419AEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Carbohydrates" sheetId="3" r:id="rId3"/>
     <sheet name="FattyAcid" sheetId="8" r:id="rId4"/>
     <sheet name="Lipid" sheetId="6" r:id="rId5"/>
-    <sheet name="Pigments" sheetId="10" r:id="rId6"/>
-    <sheet name="Cofactor" sheetId="9" r:id="rId7"/>
+    <sheet name="Cofactor" sheetId="9" r:id="rId6"/>
+    <sheet name="Pigments" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="161">
   <si>
     <t>Protein</t>
   </si>
@@ -759,6 +759,227 @@
   </si>
   <si>
     <t>Total lipids are composed of three major fractions phospholipids (PL), glycolipids (GL) and neutral lipids (NL)</t>
+  </si>
+  <si>
+    <t>α- and β-carotenes as well as the xanthophylls lutein, zeaxanthin, violaxanthin, and neoxanthin</t>
+  </si>
+  <si>
+    <t>acaroteno</t>
+  </si>
+  <si>
+    <t>zeaxantina</t>
+  </si>
+  <si>
+    <t>neoxantina</t>
+  </si>
+  <si>
+    <t># of Acyl Group</t>
+  </si>
+  <si>
+    <t>mol M/mol MM</t>
+  </si>
+  <si>
+    <t>MW of Core Structure (g/mol)</t>
+  </si>
+  <si>
+    <r>
+      <t>MW + Acyl group - CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H (g/mol)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/mol</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/g</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mmol</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/g</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MM</t>
+    </r>
+  </si>
+  <si>
+    <t>1-Acyl-sn-glycero-3-phosphoglycerol</t>
+  </si>
+  <si>
+    <t>C7H14O9PR</t>
+  </si>
+  <si>
+    <t>3-D-Glucosyl-1,2-diacylglycerol</t>
+  </si>
+  <si>
+    <t>C11H16O10R2</t>
+  </si>
+  <si>
+    <t>Cardiolipin</t>
+  </si>
+  <si>
+    <t>C13H16O17P2R4</t>
+  </si>
+  <si>
+    <t>Diglucosyldiacylglycerol</t>
+  </si>
+  <si>
+    <t>C17H26O15R2</t>
+  </si>
+  <si>
+    <t>Phosphatidylglycerol</t>
+  </si>
+  <si>
+    <t>C8H12O10PR2</t>
+  </si>
+  <si>
+    <t>triacylglycerol </t>
+  </si>
+  <si>
+    <t>phosphatidylglycerol </t>
+  </si>
+  <si>
+    <t>phosphatidylinositol </t>
+  </si>
+  <si>
+    <t>phosphatidylethanolamine </t>
+  </si>
+  <si>
+    <t>sulfoquinovosyldiglycerol</t>
+  </si>
+  <si>
+    <t>monogalactosyldiglycerol </t>
+  </si>
+  <si>
+    <t>digalactosyldiglycerol</t>
+  </si>
+  <si>
+    <t>phosphatidylcholine</t>
+  </si>
+  <si>
+    <t>nº</t>
+  </si>
+  <si>
+    <t>mmol M/gDW</t>
+  </si>
+  <si>
+    <t>mmol M/g-Lipid</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1343,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1242,10 +1463,26 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1258,7 +1495,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Cabeçalho 4" xfId="4" builtinId="19"/>
@@ -1718,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A14426-0E01-4794-B053-81038EC004DE}">
   <dimension ref="C1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2147,7 +2383,7 @@
   <dimension ref="C4:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2418,7 +2654,7 @@
   <dimension ref="B3:N20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2476,7 +2712,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2523,7 +2759,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="65"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="5" t="s">
         <v>95</v>
       </c>
@@ -2568,7 +2804,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="65"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="5" t="s">
         <v>107</v>
       </c>
@@ -2613,7 +2849,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="65"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="5" t="s">
         <v>96</v>
       </c>
@@ -2651,7 +2887,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="65"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="43" t="s">
         <v>17</v>
       </c>
@@ -2685,7 +2921,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="65"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
@@ -2724,7 +2960,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="65"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="43" t="s">
         <v>97</v>
       </c>
@@ -2749,7 +2985,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="65"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="5" t="s">
         <v>99</v>
       </c>
@@ -2789,7 +3025,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="65"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="43" t="s">
         <v>98</v>
       </c>
@@ -2814,7 +3050,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="65"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
@@ -2875,7 +3111,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="71" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2892,7 +3128,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="65"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="5" t="s">
         <v>106</v>
       </c>
@@ -2912,7 +3148,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="65"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
@@ -2932,7 +3168,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="65"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
@@ -2952,7 +3188,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="65"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
@@ -2979,7 +3215,7 @@
   <dimension ref="C6:K45"/>
   <sheetViews>
     <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3170,13 +3406,13 @@
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="74"/>
       <c r="K20" t="s">
         <v>90</v>
       </c>
@@ -3586,17 +3822,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486EA76-E874-424E-9F56-2DBA20049E18}">
-  <dimension ref="C3:N21"/>
+  <dimension ref="C3:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="11" width="12" bestFit="1" customWidth="1"/>
@@ -3613,104 +3849,227 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="59"/>
+    <row r="4" spans="3:14" ht="45" x14ac:dyDescent="0.35">
+      <c r="C4" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="5"/>
       <c r="N4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="59"/>
+      <c r="C5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>273.14999999999998</v>
+      </c>
+      <c r="H5" s="5">
+        <v>505.85355470000002</v>
+      </c>
+      <c r="I5" s="5">
+        <v>21.751702850000001</v>
+      </c>
+      <c r="J5" s="5">
+        <v>4.8522495999999998E-2</v>
+      </c>
+      <c r="K5" s="66">
+        <v>9.5921999999999994E-5</v>
+      </c>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="59"/>
+      <c r="C6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="G6" s="7">
+        <v>308.24</v>
+      </c>
+      <c r="H6" s="5">
+        <v>308.24</v>
+      </c>
+      <c r="I6" s="5">
+        <v>12.329599999999999</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2.7504190000000001E-2</v>
+      </c>
+      <c r="K6" s="66">
+        <v>8.9229799999999997E-5</v>
+      </c>
+      <c r="L6" s="5"/>
       <c r="N6" s="36"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="59"/>
+      <c r="C7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G7" s="7">
+        <v>506.2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>506.2</v>
+      </c>
+      <c r="I7" s="5">
+        <v>215.13499999999999</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.47991126000000001</v>
+      </c>
+      <c r="K7" s="17">
+        <v>9.4806600000000001E-4</v>
+      </c>
+      <c r="L7" s="5"/>
       <c r="N7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="59"/>
+      <c r="C8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="G8" s="7">
+        <v>470.38</v>
+      </c>
+      <c r="H8" s="5">
+        <v>470.38</v>
+      </c>
+      <c r="I8" s="5">
+        <v>142.52513999999999</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.31793719999999998</v>
+      </c>
+      <c r="K8" s="17">
+        <v>6.7591600000000004E-4</v>
+      </c>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="60"/>
+      <c r="C9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.189</v>
+      </c>
+      <c r="G9" s="7">
+        <v>299.14999999999998</v>
+      </c>
+      <c r="H9" s="5">
+        <v>299.14999999999998</v>
+      </c>
+      <c r="I9" s="5">
+        <v>56.539349999999999</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.12612485500000001</v>
+      </c>
+      <c r="K9" s="17">
+        <v>4.2161100000000001E-4</v>
+      </c>
+      <c r="L9" s="5"/>
       <c r="N9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="61"/>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="11">
+        <v>448.28079289999999</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11">
+        <v>2.2307450000000001E-3</v>
+      </c>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="K11" s="62"/>
-      <c r="N11" s="69" t="s">
+      <c r="K11" s="61"/>
+      <c r="N11" s="64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="K12" s="62"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="K13" s="62"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14" s="57"/>
@@ -3729,8 +4088,12 @@
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>160</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -3738,62 +4101,172 @@
       <c r="K15" s="59"/>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="68"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
       <c r="J16" s="5"/>
       <c r="K16" s="59"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="C17" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="68">
+        <v>35</v>
+      </c>
+      <c r="E17" s="68">
+        <v>8.2398700000000005E-2</v>
+      </c>
+      <c r="F17" s="70">
+        <f>E17/Total!$K$7</f>
+        <v>0.45866871297468365</v>
+      </c>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
       <c r="J17" s="5"/>
       <c r="K17" s="59"/>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="C18" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="68">
+        <v>8</v>
+      </c>
+      <c r="E18" s="68">
+        <v>9.0507023000000006E-2</v>
+      </c>
+      <c r="F18" s="70">
+        <f>E18/Total!$K$7</f>
+        <v>0.50380333372468367</v>
+      </c>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
       <c r="J18" s="5"/>
       <c r="K18" s="59"/>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="68">
+        <v>4</v>
+      </c>
+      <c r="E19" s="68">
+        <v>2.1777899990000002E-3</v>
+      </c>
+      <c r="F19" s="70">
+        <f>E19/Total!$K$7</f>
+        <v>1.2122571545066458E-2</v>
+      </c>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
       <c r="J19" s="5"/>
       <c r="K19" s="59"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="9"/>
+      <c r="C20" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="68">
+        <v>4</v>
+      </c>
+      <c r="E20" s="68">
+        <v>5.45455399999E-2</v>
+      </c>
+      <c r="F20" s="70">
+        <f>E20/Total!$K$7</f>
+        <v>0.30362533183488644</v>
+      </c>
+      <c r="G20" s="69"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="69"/>
       <c r="J20" s="9"/>
       <c r="K20" s="60"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="K21" s="62"/>
+      <c r="C21" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="68">
+        <v>10</v>
+      </c>
+      <c r="E21" s="48">
+        <v>2.8007799999999999E-2</v>
+      </c>
+      <c r="F21" s="70">
+        <f>E21/Total!$K$7</f>
+        <v>0.15590417784810129</v>
+      </c>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="K21" s="61"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="68">
+        <v>15</v>
+      </c>
+      <c r="E22" s="48">
+        <v>0.13128949500000001</v>
+      </c>
+      <c r="F22" s="70">
+        <f>E22/Total!$K$7</f>
+        <v>0.73081715729430397</v>
+      </c>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="68">
+        <v>16</v>
+      </c>
+      <c r="E23" s="48">
+        <v>7.8736100000000003E-2</v>
+      </c>
+      <c r="F23" s="70">
+        <f>E23/Total!$K$7</f>
+        <v>0.43828101234177225</v>
+      </c>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="68">
+        <v>9</v>
+      </c>
+      <c r="E24" s="48">
+        <v>4.8204721999999998E-2</v>
+      </c>
+      <c r="F24" s="70">
+        <f>E24/Total!$K$7</f>
+        <v>0.26832944936075953</v>
+      </c>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3802,68 +4275,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE5902F-563B-4582-B54A-17DC48946435}">
-  <dimension ref="A1:M6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="63"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="M2" s="64" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA410950-D289-4EA7-91EB-1B1B634E8168}">
   <dimension ref="D4:I21"/>
   <sheetViews>
@@ -4029,4 +4440,84 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE5902F-563B-4582-B54A-17DC48946435}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="62"/>
+      <c r="E1" s="64" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Biomass_composition.xlsx
+++ b/Biomass_composition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonca\OneDrive\Documentos\GitHub\UC_projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonca\Documents\GitHub\UC_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E35FEE7-7685-4868-B7CB-4652598E0A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B892EE-D775-4693-96C1-58B75F65B390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C94ABC85-F8B5-4533-8961-D8998B419AEF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{C94ABC85-F8B5-4533-8961-D8998B419AEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Lipid" sheetId="6" r:id="rId5"/>
     <sheet name="Cofactor" sheetId="9" r:id="rId6"/>
     <sheet name="Pigments" sheetId="10" r:id="rId7"/>
+    <sheet name="Folha1" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="246">
   <si>
     <t>Protein</t>
   </si>
@@ -91,12 +92,6 @@
   </si>
   <si>
     <t>C15H22N2O17P2</t>
-  </si>
-  <si>
-    <t>dTDP-L-rhamnose</t>
-  </si>
-  <si>
-    <t>C16H24N2O15P2</t>
   </si>
   <si>
     <t>Total</t>
@@ -562,12 +557,6 @@
     <t>GDP-mannose</t>
   </si>
   <si>
-    <t>β1-3 glucan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celulose </t>
-  </si>
-  <si>
     <t>Starch</t>
   </si>
   <si>
@@ -650,21 +639,6 @@
   </si>
   <si>
     <t>violoxantina</t>
-  </si>
-  <si>
-    <t>7–12,000</t>
-  </si>
-  <si>
-    <t>52–3830</t>
-  </si>
-  <si>
-    <t>250–9630</t>
-  </si>
-  <si>
-    <t>72–5770</t>
-  </si>
-  <si>
-    <t>10–37</t>
   </si>
   <si>
     <t>orphology, composition, production, processing and applications of Chlorella vulgar</t>
@@ -982,17 +956,331 @@
     <t>mmol M/g-Lipid</t>
   </si>
   <si>
-    <t>ssssssss</t>
+    <t># of mol into Cofactor</t>
+  </si>
+  <si>
+    <r>
+      <t>mmol</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>monomer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/g</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e-Cofactor</t>
+    </r>
+  </si>
+  <si>
+    <t>Thiamine</t>
+  </si>
+  <si>
+    <t>C12H17N4OS</t>
+  </si>
+  <si>
+    <t>Tetrahydrofolate</t>
+  </si>
+  <si>
+    <t>C19H21N7O6</t>
+  </si>
+  <si>
+    <t>S-Adenosyl-L-methionine</t>
+  </si>
+  <si>
+    <t>C15H23N6O5S</t>
+  </si>
+  <si>
+    <t>Riboflavin</t>
+  </si>
+  <si>
+    <t>C17H20N4O6</t>
+  </si>
+  <si>
+    <t>NAD+</t>
+  </si>
+  <si>
+    <t>C21H26N7O14P2</t>
+  </si>
+  <si>
+    <t>Glutathione</t>
+  </si>
+  <si>
+    <t>C10H16N3O6S</t>
+  </si>
+  <si>
+    <t>FMN</t>
+  </si>
+  <si>
+    <t>C17H19N4O9P</t>
+  </si>
+  <si>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>C27H31N9O15P2</t>
+  </si>
+  <si>
+    <t>CoA</t>
+  </si>
+  <si>
+    <t>C21H32N7O16P3S</t>
+  </si>
+  <si>
+    <t>Biotin</t>
+  </si>
+  <si>
+    <t>C10H15N2O3S</t>
+  </si>
+  <si>
+    <t>g M/g mm</t>
+  </si>
+  <si>
+    <t>C8H10NO6P</t>
+  </si>
+  <si>
+    <t>Pyridoxal phosphate</t>
+  </si>
+  <si>
+    <t>NADPH</t>
+  </si>
+  <si>
+    <t>C21H30N7O17P3</t>
+  </si>
+  <si>
+    <t>Ubiquinol</t>
+  </si>
+  <si>
+    <t>C54H84O4</t>
+  </si>
+  <si>
+    <t>Ascorbate</t>
+  </si>
+  <si>
+    <t>C6H8O6</t>
+  </si>
+  <si>
+    <t>Heme</t>
+  </si>
+  <si>
+    <t>C34H32FeN4O4</t>
+  </si>
+  <si>
+    <t>Alpha-tocopherol</t>
+  </si>
+  <si>
+    <t>C29H50O2</t>
+  </si>
+  <si>
+    <t>Cobamide coenzyme</t>
+  </si>
+  <si>
+    <t>C72H100CoN18O17P</t>
+  </si>
+  <si>
+    <t>10-Formyltetrahydrofolate</t>
+  </si>
+  <si>
+    <t>C20H23N7O7</t>
+  </si>
+  <si>
+    <t>Thiamine diphosphate</t>
+  </si>
+  <si>
+    <t>C12H19N4O7P2S</t>
+  </si>
+  <si>
+    <t>Phylloquinol</t>
+  </si>
+  <si>
+    <t>Plastoquinol-9</t>
+  </si>
+  <si>
+    <t>R-Lipoate</t>
+  </si>
+  <si>
+    <t>2fe2s</t>
+  </si>
+  <si>
+    <t>soma</t>
+  </si>
+  <si>
+    <t>sqdg</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>SOMA</t>
+  </si>
+  <si>
+    <t>MGDG</t>
+  </si>
+  <si>
+    <t>DGDG</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>from utex395</t>
+  </si>
+  <si>
+    <t>mmol M/g-pigment</t>
+  </si>
+  <si>
+    <t>L-ARABINOSE</t>
+  </si>
+  <si>
+    <t>D-GALACTOSE</t>
+  </si>
+  <si>
+    <t>ALPHA-D-GLUCOSE</t>
+  </si>
+  <si>
+    <t>D-Mannose</t>
+  </si>
+  <si>
+    <t>STARCH</t>
+  </si>
+  <si>
+    <t>loroxanthin</t>
+  </si>
+  <si>
+    <t>dCTP</t>
+  </si>
+  <si>
+    <t>dTTP</t>
+  </si>
+  <si>
+    <t>dGTP</t>
+  </si>
+  <si>
+    <t>Datp</t>
+  </si>
+  <si>
+    <t>UTEX395</t>
+  </si>
+  <si>
+    <t>mmol_per_gDW_per_hr</t>
+  </si>
+  <si>
+    <t>cyt</t>
+  </si>
+  <si>
+    <t>his</t>
+  </si>
+  <si>
+    <t>glut</t>
+  </si>
+  <si>
+    <t>aspa</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>ser</t>
+  </si>
+  <si>
+    <t>tyrosi</t>
+  </si>
+  <si>
+    <t>threon</t>
+  </si>
+  <si>
+    <t>glutaminyl</t>
+  </si>
+  <si>
+    <t>phenina</t>
+  </si>
+  <si>
+    <t>thrypto</t>
+  </si>
+  <si>
+    <t>prol</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>glycil</t>
+  </si>
+  <si>
+    <t>arginyl</t>
+  </si>
+  <si>
+    <t>asparagynil</t>
+  </si>
+  <si>
+    <t>leucyl</t>
+  </si>
+  <si>
+    <t>cysteinyl</t>
+  </si>
+  <si>
+    <t>isoleucyl</t>
+  </si>
+  <si>
+    <t>alanyl</t>
+  </si>
+  <si>
+    <t>lysisl</t>
+  </si>
+  <si>
+    <t>valor de starch do outro modelo</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>hetero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,8 +1397,20 @@
       <color rgb="FF006FB7"/>
       <name val="Merriweather"/>
     </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1138,12 +1438,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,7 +1640,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1430,12 +1724,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1461,14 +1749,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1486,6 +1774,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1659,9 +1959,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1699,7 +1999,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1805,7 +2105,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1947,7 +2247,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1958,40 +2258,40 @@
   <dimension ref="C1:M29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="11" max="11" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:13" ht="117" x14ac:dyDescent="0.45">
       <c r="D1" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G1" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="50" t="s">
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C3" s="46" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1"/>
@@ -2001,16 +2301,16 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C4" s="26" t="s">
         <v>0</v>
       </c>
@@ -2040,14 +2340,14 @@
         <f>J4/$J$11</f>
         <v>0.45669888194049646</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="44">
         <v>0.46</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="44">
         <v>0.48</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C5" s="26" t="s">
         <v>6</v>
       </c>
@@ -2067,14 +2367,14 @@
         <f t="shared" ref="K5:K10" si="1">J5/$J$11</f>
         <v>1.1370096645821489E-3</v>
       </c>
-      <c r="L5" s="48">
+      <c r="L5" s="44">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M5" s="48">
+      <c r="M5" s="44">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C6" s="26" t="s">
         <v>7</v>
       </c>
@@ -2094,14 +2394,14 @@
         <f t="shared" si="1"/>
         <v>3.1836270608300167E-2</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="44">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="44">
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C7" s="26" t="s">
         <v>5</v>
       </c>
@@ -2131,16 +2431,16 @@
         <f t="shared" si="1"/>
         <v>0.17964752700397951</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="44">
         <v>0.126</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="44">
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C8" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="35">
         <v>0.09</v>
@@ -2168,16 +2468,16 @@
         <f t="shared" si="1"/>
         <v>0.27382982755353419</v>
       </c>
-      <c r="L8" s="48">
+      <c r="L8" s="44">
         <v>0.29499999999999998</v>
       </c>
-      <c r="M8" s="48">
+      <c r="M8" s="44">
         <v>0.248</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C9" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -2195,15 +2495,15 @@
         <f t="shared" si="1"/>
         <v>4.5480386583285959E-2</v>
       </c>
-      <c r="L9" s="48">
+      <c r="L9" s="44">
         <v>2.7E-2</v>
       </c>
-      <c r="M9" s="48">
+      <c r="M9" s="44">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="51" t="s">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C10" s="47" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="35"/>
@@ -2222,12 +2522,12 @@
         <f t="shared" si="1"/>
         <v>1.137009664582149E-2</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="44">
         <v>2E-3</v>
       </c>
-      <c r="M10" s="48"/>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M10" s="44"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
       <c r="I11">
         <f>SUM(I4:I10)</f>
         <v>1.0090000000000001</v>
@@ -2236,138 +2536,138 @@
         <f>SUM(J4:J10)</f>
         <v>0.87950000000000006</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="72">
         <f>SUM(K4:K10)</f>
         <v>1</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="72">
         <f>SUM(L4:L10)</f>
         <v>1</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="72">
         <f>SUM(M4:M10)</f>
         <v>1.0029999999999999</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="49"/>
-    </row>
-    <row r="21" spans="3:6" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="F19" s="45"/>
+    </row>
+    <row r="21" spans="3:6" ht="9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C22" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="52" t="s">
+      <c r="D22" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C23" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="44">
         <v>0.45700000000000002</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="44">
         <v>0.46</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="44">
         <v>0.48</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="52" t="s">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C24" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="44">
         <v>1E-3</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="44">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="44">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="52" t="s">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C25" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="44">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="44">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="44">
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="48">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C26" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="44">
         <v>0.18</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="44">
         <v>0.126</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="44">
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="48">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C27" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="44">
         <v>0.27400000000000002</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="44">
         <v>0.29499999999999998</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="44">
         <v>0.248</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="48">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C28" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="44">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="44">
         <v>2.7E-2</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="44">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="53" t="s">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C29" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="44">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="44">
         <v>2E-3</v>
       </c>
-      <c r="F29" s="48" t="s">
-        <v>103</v>
+      <c r="F29" s="44" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2383,25 +2683,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5257B6-A1EF-4773-B731-129917550A7D}">
-  <dimension ref="C4:K14"/>
+  <dimension ref="C4:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.53125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:11" ht="58.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:15" ht="57.75" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2409,33 +2709,40 @@
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="K4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="L4" s="53"/>
+      <c r="M4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="70" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="E5" s="5">
         <v>0.208572954</v>
@@ -2455,13 +2762,18 @@
       <c r="K5" s="5">
         <v>5.8615615855853703E-2</v>
       </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="70"/>
+      <c r="M5" s="41">
+        <f>(E5/$H$9)*1000</f>
+        <v>0.64383114805694219</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5">
         <v>0.30812833499999998</v>
@@ -2481,13 +2793,18 @@
       <c r="K6" s="5">
         <v>0.104205539299296</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="70"/>
+      <c r="M6" s="41">
+        <f t="shared" ref="M6:M9" si="0">(E6/$H$9)*1000</f>
+        <v>0.9511425900019812</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="5">
         <v>0.22450176899999999</v>
@@ -2507,13 +2824,18 @@
       <c r="K7" s="5">
         <v>0.104205539299296</v>
       </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="70"/>
+      <c r="M7" s="41">
+        <f t="shared" si="0"/>
+        <v>0.69300083689702374</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C8" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="5">
         <v>0.26192378599999999</v>
@@ -2534,10 +2856,15 @@
         <f>K5</f>
         <v>5.8615615855853703E-2</v>
       </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="70"/>
+      <c r="M8" s="41">
+        <f t="shared" si="0"/>
+        <v>0.8085165818948935</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="11">
@@ -2561,8 +2888,12 @@
       <c r="K9" s="16">
         <v>0.33162360200000002</v>
       </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M9" s="41">
+        <f t="shared" si="0"/>
+        <v>3.0868390925553184</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C10" s="9"/>
       <c r="D10" s="5"/>
       <c r="E10" s="9"/>
@@ -2573,7 +2904,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2584,7 +2915,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
@@ -2601,12 +2932,12 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="5">
@@ -2627,9 +2958,9 @@
         <v>0.33162403000000001</v>
       </c>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C14" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="11"/>
@@ -2649,34 +2980,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB3C14B-2632-499D-AF67-BE6A7C66612E}">
-  <dimension ref="B3:N20"/>
+  <dimension ref="A3:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" customWidth="1"/>
+    <col min="3" max="3" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.53125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
@@ -2687,39 +3020,39 @@
         <v>13</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>61</v>
-      </c>
       <c r="L3" s="39" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M3" s="39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N3" s="39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>14</v>
@@ -2738,16 +3071,16 @@
         <v>186.18</v>
       </c>
       <c r="I4" s="2">
-        <f>H4/$H$13</f>
-        <v>0.20762102305041652</v>
-      </c>
-      <c r="J4" s="47">
-        <f>K4/$N$13</f>
-        <v>0.14122731991699064</v>
+        <f>H4/$H$10</f>
+        <v>0.24254820218863993</v>
+      </c>
+      <c r="J4" s="43">
+        <f t="shared" ref="J4:J9" si="0">K4/$N$10</f>
+        <v>0.20526673385731087</v>
       </c>
       <c r="K4" s="2">
-        <f>M4/F4*1000</f>
-        <v>3.8672252658717363E-2</v>
+        <f t="shared" ref="K4:K9" si="1">N4/F4*1000</f>
+        <v>5.6208154334624644E-2</v>
       </c>
       <c r="L4">
         <v>0.72</v>
@@ -2757,14 +3090,14 @@
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="N4">
-        <f>M4*Total!$K$8/Carbohydrates!$M$13</f>
+        <f>M4*Total!$K$8/Carbohydrates!$M$10</f>
         <v>1.0464834174020417E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="71"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B5" s="73"/>
       <c r="C5" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>16</v>
@@ -2779,37 +3112,37 @@
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H5:H6" si="0">G5*F5</f>
+        <f t="shared" ref="H5:H6" si="2">G5*F5</f>
         <v>436.29</v>
       </c>
       <c r="I5" s="2">
-        <f>H5/$H$13</f>
-        <v>0.48653440835033956</v>
-      </c>
-      <c r="J5" s="47">
-        <f t="shared" ref="J5:J11" si="1">K5/$N$13</f>
-        <v>4.7711035666334424E-2</v>
+        <f>H5/$H$10</f>
+        <v>0.56838196977592492</v>
+      </c>
+      <c r="J5" s="43">
+        <f t="shared" si="0"/>
+        <v>6.934556618318935E-2</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ref="K5:K9" si="2">M5/F5*1000</f>
-        <v>1.3064704668912876E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.8988884429544935E-2</v>
       </c>
       <c r="L5">
         <v>0.56999999999999995</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M11" si="3">L5/100</f>
+        <f t="shared" ref="M5:M9" si="3">L5/100</f>
         <v>5.6999999999999993E-3</v>
       </c>
       <c r="N5">
-        <f>M5*Total!$K$8/Carbohydrates!$M$13</f>
+        <f>M5*Total!$K$8/Carbohydrates!$M$10</f>
         <v>8.2846603877661604E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="71"/>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B6" s="73"/>
       <c r="C6" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>16</v>
@@ -2824,20 +3157,20 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>145.13</v>
+      </c>
+      <c r="I6" s="2">
+        <f>H6/$H$10</f>
+        <v>0.18906982803543512</v>
+      </c>
+      <c r="J6" s="43">
         <f t="shared" si="0"/>
-        <v>145.13</v>
-      </c>
-      <c r="I6" s="2">
-        <f>H6/$H$13</f>
-        <v>0.16184358725591871</v>
-      </c>
-      <c r="J6" s="47">
+        <v>1.594587647680394</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>1.0971058759632515</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="2"/>
-        <v>0.30042031282298631</v>
+        <v>0.43664566058331811</v>
       </c>
       <c r="L6">
         <v>4.3600000000000003</v>
@@ -2847,21 +3180,21 @@
         <v>4.36E-2</v>
       </c>
       <c r="N6">
-        <f>M6*Total!$K$8/Carbohydrates!$M$13</f>
+        <f>M6*Total!$K$8/Carbohydrates!$M$10</f>
         <v>6.337038472045696E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="71"/>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B7" s="73"/>
       <c r="C7" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7">
         <v>605.34109999999998</v>
       </c>
       <c r="F7" s="5">
-        <f>E7-E17-E19</f>
+        <f>E7-E14-E16</f>
         <v>144.12109999999998</v>
       </c>
       <c r="G7" s="5">
@@ -2869,13 +3202,13 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="47">
+      <c r="J7" s="43">
+        <f t="shared" si="0"/>
+        <v>0.25043812640219482</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>0.17230607576871526</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="2"/>
-        <v>4.7182543014173503E-2</v>
+        <v>6.8577428965543211E-2</v>
       </c>
       <c r="L7">
         <v>0.68</v>
@@ -2885,328 +3218,341 @@
         <v>6.8000000000000005E-3</v>
       </c>
       <c r="N7">
-        <f>M7*Total!$K$8/Carbohydrates!$M$13</f>
+        <f>M7*Total!$K$8/Carbohydrates!$M$10</f>
         <v>9.8834544976859496E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="71"/>
-      <c r="C8" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="44">
-        <v>546.30999999999995</v>
-      </c>
-      <c r="F8" s="43">
-        <v>129.13</v>
-      </c>
-      <c r="G8" s="43">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B8" s="73"/>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
+        <v>566.30179999999996</v>
+      </c>
+      <c r="F8" s="5">
+        <f>E8-E15-E16</f>
+        <v>147.14179999999996</v>
+      </c>
+      <c r="G8" s="5">
         <v>1</v>
       </c>
-      <c r="H8" s="45">
-        <f>G8*F8</f>
-        <v>129.13</v>
-      </c>
-      <c r="I8" s="45">
-        <f>H8/$H$13</f>
-        <v>0.14400098134332517</v>
-      </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="M8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="71"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="43">
+        <f t="shared" si="0"/>
+        <v>3.5748406813631628</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.97889800730903376</v>
+      </c>
+      <c r="L8">
+        <f>12.51-L9</f>
+        <v>9.91</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>9.9100000000000008E-2</v>
+      </c>
+      <c r="N8">
+        <f>M8*Total!$K$8/Carbohydrates!$M$10</f>
+        <v>0.14403681481186434</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B9" s="73"/>
       <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="E9" s="7">
-        <v>566.30179999999996</v>
+        <v>48660.2</v>
       </c>
       <c r="F9" s="5">
-        <f>E9-E18-E19</f>
-        <v>147.14179999999996</v>
+        <f>E9</f>
+        <v>48660.2</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="47">
+      <c r="J9" s="43">
+        <f t="shared" si="0"/>
+        <v>2.8360805398354523E-3</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>2.4595566903212891</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.67349998436881997</v>
+        <v>7.7660344515107622E-4</v>
       </c>
       <c r="L9">
-        <f>12.51-L11</f>
-        <v>9.91</v>
+        <v>2.6</v>
       </c>
       <c r="M9">
         <f t="shared" si="3"/>
-        <v>9.9100000000000008E-2</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="N9">
-        <f>M9*Total!$K$8/Carbohydrates!$M$13</f>
-        <v>0.14403681481186434</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="71"/>
-      <c r="C10" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="43">
-        <f>E10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="43">
-        <v>1</v>
-      </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="71"/>
-      <c r="C11" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="7">
-        <v>48660.2</v>
-      </c>
-      <c r="F11" s="5">
-        <f>E11</f>
-        <v>48660.2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="47">
-        <f t="shared" si="1"/>
-        <v>1.9512760113780485E-3</v>
-      </c>
-      <c r="K11" s="2">
-        <f>M11/F11*1000</f>
-        <v>5.3431757370499917E-4</v>
-      </c>
-      <c r="L11">
-        <v>2.6</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="3"/>
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="N11">
-        <f>M11*Total!$K$8/Carbohydrates!$M$13</f>
+        <f>M9*Total!$K$8/Carbohydrates!$M$10</f>
         <v>3.7789678961740396E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="71"/>
-      <c r="C12" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="43">
-        <f>E12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="43">
-        <v>1</v>
-      </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="M12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="71"/>
-      <c r="C13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="2">
-        <f t="shared" ref="E13:N13" si="4">SUM(E4:E12)</f>
-        <v>52112.072899999999</v>
-      </c>
-      <c r="F13" s="2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B10" s="73"/>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="2">
+        <f t="shared" ref="E10:N10" si="4">SUM(E4:E9)</f>
+        <v>51565.762899999994</v>
+      </c>
+      <c r="F10" s="2">
         <f t="shared" si="4"/>
-        <v>49848.192899999995</v>
-      </c>
-      <c r="G13" s="2">
+        <v>49719.062899999997</v>
+      </c>
+      <c r="G10" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="H13" s="2">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2">
         <f t="shared" si="4"/>
-        <v>896.73</v>
-      </c>
-      <c r="I13" s="2">
+        <v>767.6</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J10" s="2">
         <f t="shared" si="4"/>
-        <v>3.919858273647959</v>
-      </c>
-      <c r="K13" s="2">
+        <v>5.697314836026087</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="4"/>
-        <v>1.0733741151073148</v>
-      </c>
-      <c r="L13" s="2">
+        <v>1.5600947390672157</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="4"/>
         <v>18.840000000000003</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M10" s="2">
         <f t="shared" si="4"/>
         <v>0.18839999999999998</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N10" s="2">
         <f t="shared" si="4"/>
         <v>0.27382982755353424</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="5"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C15" s="5"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="71" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B13" s="73" t="s">
         <v>9</v>
       </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B14" s="73"/>
+      <c r="C14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="7">
+        <v>443.2</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="2">
+        <f>J7</f>
+        <v>0.25043812640219482</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B15" s="73"/>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="7">
+        <v>401.14</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="2">
+        <f>SUM(J4:J6,J8)</f>
+        <v>5.4440406290840571</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B16" s="73"/>
       <c r="C16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="7">
+        <v>18.02</v>
+      </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="71"/>
-      <c r="C17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7">
-        <v>443.2</v>
-      </c>
+        <f>SUM(J4:J9)</f>
+        <v>5.697314836026087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B17" s="73"/>
+      <c r="C17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="2">
-        <f>J7</f>
-        <v>0.17230607576871526</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="71"/>
-      <c r="C18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="7">
-        <v>401.14</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="2">
-        <f>SUM(J4:J6,J9)</f>
-        <v>3.7456009218678656</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="71"/>
-      <c r="C19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="7">
-        <v>18.02</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="2">
-        <f>SUM(J4:J12)</f>
-        <v>3.919858273647959</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="71"/>
-      <c r="C20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="70">
+        <f>0.146003758/0.274</f>
+        <v>0.53286043065693434</v>
+      </c>
+      <c r="C22" s="70">
+        <f>0.53286-0.00283</f>
+        <v>0.53003</v>
+      </c>
+      <c r="D22">
+        <f>5.6973+0.52003</f>
+        <v>6.2173300000000005</v>
+      </c>
+      <c r="E22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <f>0.103297455/0.274</f>
+        <v>0.37699801094890506</v>
+      </c>
+      <c r="C23">
+        <f>0.376998-0.00283</f>
+        <v>0.374168</v>
+      </c>
+      <c r="D23">
+        <f>5.6973+0.374168</f>
+        <v>6.0714680000000003</v>
+      </c>
+      <c r="E23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E26" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1.008363478733E-4</v>
+      </c>
+      <c r="G26">
+        <f>F26/Total!$K$8</f>
+        <v>3.6824457282173297E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E27" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.16083127799999999</v>
+      </c>
+      <c r="G27">
+        <f>F27/Total!$K$8</f>
+        <v>0.58734024498685122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1.427343244</v>
+      </c>
+      <c r="G28">
+        <f>F28/Total!$K$8</f>
+        <v>5.2125192377771628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.109064596</v>
+      </c>
+      <c r="G29">
+        <f>F29/Total!$K$8</f>
+        <v>0.39829333777993081</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.14600375800000001</v>
+      </c>
+      <c r="G30">
+        <f>F30/Total!$K$8</f>
+        <v>0.53319157852318344</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B13:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3217,20 +3563,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F67D339-7CAE-4D2D-ABC4-6EDF23614974}">
   <dimension ref="C6:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
+    <sheetView topLeftCell="B38" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:7" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
@@ -3238,21 +3584,21 @@
         <v>12</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="E7" s="17">
         <v>7.0000000000000007E-2</v>
@@ -3265,12 +3611,12 @@
         <v>19.842900000000004</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="17">
         <v>0.03</v>
@@ -3283,12 +3629,12 @@
         <v>6.4001999999999999</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="17">
         <v>0.36</v>
@@ -3301,12 +3647,12 @@
         <v>101.32199999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C10" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" s="17">
         <v>0.23</v>
@@ -3319,12 +3665,12 @@
         <v>58.744300000000003</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="17">
         <v>0.09</v>
@@ -3337,12 +3683,12 @@
         <v>20.462399999999999</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C12" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" s="17">
         <v>0.05</v>
@@ -3355,12 +3701,12 @@
         <v>12.670000000000002</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C13" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="17">
         <v>0.17</v>
@@ -3373,9 +3719,9 @@
         <v>47.846499999999999</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C14" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
@@ -3385,10 +3731,10 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="3:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="3:7" ht="31.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C16" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -3397,9 +3743,9 @@
         <v>277.72355470000002</v>
       </c>
     </row>
-    <row r="17" spans="3:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:11" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C17" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -3408,19 +3754,19 @@
         <v>232.70355470000001</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C20" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C20" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
       <c r="K20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" ht="15.6" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="3" t="s">
         <v>11</v>
       </c>
@@ -3428,18 +3774,18 @@
         <v>12</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C22" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="17">
@@ -3454,9 +3800,9 @@
         <v>2.2737000000000003</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C23" s="34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="17">
@@ -3471,9 +3817,9 @@
         <v>0.96560000000000001</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C24" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="17">
@@ -3488,9 +3834,9 @@
         <v>41.887239999999991</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C25" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="17">
@@ -3505,9 +3851,9 @@
         <v>3.8011499999999998</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C26" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="17">
@@ -3522,9 +3868,9 @@
         <v>3.2334000000000001</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C27" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="17">
@@ -3539,9 +3885,9 @@
         <v>11.821740000000002</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C28" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="17">
@@ -3556,9 +3902,9 @@
         <v>0.84450000000000003</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C29" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="17">
@@ -3573,9 +3919,9 @@
         <v>51.285599999999995</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C30" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="17">
@@ -3590,9 +3936,9 @@
         <v>5.6292</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C31" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="17">
@@ -3607,9 +3953,9 @@
         <v>98.086950000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C32" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="17">
@@ -3624,9 +3970,9 @@
         <v>7.9374399999999996</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C33" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="17">
@@ -3641,9 +3987,9 @@
         <v>0.59499999999999997</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C34" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="17">
@@ -3658,9 +4004,9 @@
         <v>14.426360000000001</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C35" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="17">
@@ -3675,9 +4021,9 @@
         <v>17.757210000000001</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C36" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="17">
@@ -3692,9 +4038,9 @@
         <v>1.242</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C37" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="17">
@@ -3709,9 +4055,9 @@
         <v>4.0105000000000004</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C38" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="17">
@@ -3726,9 +4072,9 @@
         <v>1.2259200000000001</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C39" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="17">
@@ -3743,9 +4089,9 @@
         <v>0.65112000000000003</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C40" s="38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="17">
@@ -3760,9 +4106,9 @@
         <v>1.8208200000000001</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C41" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="17">
@@ -3777,9 +4123,9 @@
         <v>3.0562200000000002</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C42" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2">
@@ -3789,10 +4135,10 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="3:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="44" spans="3:7" ht="31.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C44" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
@@ -3801,9 +4147,9 @@
         <v>277.72355470000002</v>
       </c>
     </row>
-    <row r="45" spans="3:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:7" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C45" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -3825,72 +4171,74 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486EA76-E874-424E-9F56-2DBA20049E18}">
-  <dimension ref="C3:N29"/>
+  <dimension ref="C3:N114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.06640625" customWidth="1"/>
+    <col min="5" max="5" width="13.86328125" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.9296875" customWidth="1"/>
+    <col min="9" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="3:14" ht="45" x14ac:dyDescent="0.35">
-      <c r="C4" s="65" t="s">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="3:14" ht="45" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="61" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="L4" s="5"/>
       <c r="N4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C5" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -3910,17 +4258,17 @@
       <c r="J5" s="5">
         <v>4.8522495999999998E-2</v>
       </c>
-      <c r="K5" s="66">
+      <c r="K5" s="62">
         <v>9.5921999999999994E-5</v>
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C6" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E6" s="5">
         <v>2</v>
@@ -3940,18 +4288,18 @@
       <c r="J6" s="5">
         <v>2.7504190000000001E-2</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="62">
         <v>8.9229799999999997E-5</v>
       </c>
       <c r="L6" s="5"/>
       <c r="N6" s="36"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C7" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E7" s="5">
         <v>4</v>
@@ -3976,15 +4324,15 @@
       </c>
       <c r="L7" s="5"/>
       <c r="N7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C8" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
@@ -4009,12 +4357,12 @@
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C9" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E9" s="5">
         <v>2</v>
@@ -4039,12 +4387,12 @@
       </c>
       <c r="L9" s="5"/>
       <c r="N9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C10" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -4062,218 +4410,1368 @@
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="K11" s="61"/>
-      <c r="N11" s="64" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="K12" s="61"/>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="K13" s="61"/>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
+    <row r="11" spans="3:14" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="K11" s="57"/>
+      <c r="N11" s="60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="K12" s="57"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="K13" s="57"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
       <c r="N14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="59"/>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="K15" s="55"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
+      <c r="D16" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="64"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="59"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C17" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="68">
+      <c r="K16" s="55"/>
+    </row>
+    <row r="17" spans="3:13" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="C17" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="64">
         <v>35</v>
       </c>
-      <c r="E17" s="68">
-        <v>8.2398700000000005E-2</v>
-      </c>
-      <c r="F17" s="70">
+      <c r="E17" s="64">
+        <v>0.106018</v>
+      </c>
+      <c r="F17" s="66">
         <f>E17/Total!$K$7</f>
-        <v>0.45866871297468365</v>
-      </c>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
+        <v>0.59014450000000007</v>
+      </c>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="59"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="68">
+      <c r="K17" s="55"/>
+    </row>
+    <row r="18" spans="3:13" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="C18" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="64">
         <v>8</v>
       </c>
-      <c r="E18" s="68">
-        <v>9.0507023000000006E-2</v>
-      </c>
-      <c r="F18" s="70">
+      <c r="E18" s="64">
+        <v>6.9150000000000003E-2</v>
+      </c>
+      <c r="F18" s="66">
         <f>E18/Total!$K$7</f>
-        <v>0.50380333372468367</v>
-      </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
+        <v>0.38492041139240513</v>
+      </c>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="59"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C19" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="68">
+      <c r="K18" s="55"/>
+    </row>
+    <row r="19" spans="3:13" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="C19" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="64">
         <v>4</v>
       </c>
-      <c r="E19" s="68">
+      <c r="E19" s="64">
         <v>2.1777899990000002E-3</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="66">
         <f>E19/Total!$K$7</f>
         <v>1.2122571545066458E-2</v>
       </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="59"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C20" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="68">
+      <c r="K19" s="55"/>
+    </row>
+    <row r="20" spans="3:13" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="C20" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="64">
         <v>4</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="64">
         <v>5.45455399999E-2</v>
       </c>
-      <c r="F20" s="70">
+      <c r="F20" s="66">
         <f>E20/Total!$K$7</f>
         <v>0.30362533183488644</v>
       </c>
-      <c r="G20" s="69"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="69"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="60"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C21" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="68">
+      <c r="K20" s="56"/>
+    </row>
+    <row r="21" spans="3:13" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="C21" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="64">
         <v>10</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="44">
         <v>2.8007799999999999E-2</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="66">
         <f>E21/Total!$K$7</f>
         <v>0.15590417784810129</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="K21" s="61"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C22" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="68">
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="K21" s="57"/>
+    </row>
+    <row r="22" spans="3:13" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="C22" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="64">
         <v>15</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="44">
         <v>0.13128949500000001</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="66">
         <f>E22/Total!$K$7</f>
         <v>0.73081715729430397</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C23" s="67" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="68">
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" spans="3:13" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="C23" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="64">
         <v>16</v>
       </c>
-      <c r="E23" s="48">
-        <v>7.8736100000000003E-2</v>
-      </c>
-      <c r="F23" s="70">
+      <c r="E23" s="44">
+        <v>6.5350000000000005E-2</v>
+      </c>
+      <c r="F23" s="66">
         <f>E23/Total!$K$7</f>
-        <v>0.43828101234177225</v>
-      </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C24" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="68">
+        <v>0.3637678797468355</v>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+    </row>
+    <row r="24" spans="3:13" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="C24" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="64">
         <v>9</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="44">
         <v>4.8204721999999998E-2</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F24" s="66">
         <f>E24/Total!$K$7</f>
         <v>0.26832944936075953</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>161</v>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C29" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="35">
+        <v>8.3870000000000004E-3</v>
+      </c>
+      <c r="E29" s="35">
+        <f>D29/$D$34</f>
+        <v>0.29946619534750862</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="35">
+        <v>1.9194441934880799E-3</v>
+      </c>
+      <c r="I29" s="35">
+        <f>H29/$H$31</f>
+        <v>0.88135593220339004</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L29" s="35">
+        <v>1.4160842E-2</v>
+      </c>
+      <c r="M29" s="2">
+        <f>L29/$L$37</f>
+        <v>0.2047634280021573</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C30" s="35"/>
+      <c r="D30" s="35">
+        <v>8.3870000000000004E-3</v>
+      </c>
+      <c r="E30" s="35">
+        <f t="shared" ref="E30:E33" si="0">D30/$D$34</f>
+        <v>0.29946619534750862</v>
+      </c>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35">
+        <v>2.5838671835416401E-4</v>
+      </c>
+      <c r="I30" s="35">
+        <f>H30/$H$31</f>
+        <v>0.11864406779660992</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="35">
+        <v>7.1891500000000001E-3</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" ref="M30:M36" si="1">L30/$L$37</f>
+        <v>0.10395391731803161</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C31" s="35"/>
+      <c r="D31" s="35">
+        <v>2.4450000000000001E-3</v>
+      </c>
+      <c r="E31" s="35">
+        <f t="shared" si="0"/>
+        <v>8.7301162230196572E-2</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="H31" s="35">
+        <f>SUM(H29:H30)</f>
+        <v>2.177830911842244E-3</v>
+      </c>
+      <c r="I31" s="35">
+        <f>SUM(I29:I30)</f>
+        <v>1</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="35">
+        <v>1.4160842E-2</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2047634280021573</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C32" s="35"/>
+      <c r="D32" s="35">
+        <v>4.5345000000000003E-3</v>
+      </c>
+      <c r="E32" s="35">
+        <f t="shared" si="0"/>
+        <v>0.16190884259011301</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="35">
+        <v>7.1891500000000001E-3</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10395391731803161</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C33" s="35"/>
+      <c r="D33" s="35">
+        <v>4.2529999999999998E-3</v>
+      </c>
+      <c r="E33" s="35">
+        <f t="shared" si="0"/>
+        <v>0.1518576044846732</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="35">
+        <v>1.0119863999999999E-2</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14633155595942837</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C34" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="68">
+        <f>SUM(D29:D33)</f>
+        <v>2.80065E-2</v>
+      </c>
+      <c r="E34" s="35">
+        <f>SUM(E29:E33)</f>
+        <v>1</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="35">
+        <v>3.1481719999999999E-3</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5522045275302667E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="K35" s="2"/>
+      <c r="L35" s="35">
+        <v>1.0080379E-2</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14576060940450847</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="K36" s="2"/>
+      <c r="L36" s="35">
+        <v>3.1086870000000002E-3</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="1"/>
+        <v>4.4951098720382762E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="K37" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L37" s="2">
+        <f>SUM(L29:L36)</f>
+        <v>6.9157085999999993E-2</v>
+      </c>
+      <c r="M37" s="2">
+        <f>SUM(M29:M36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C38" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="35">
+        <v>1.1434908000000001E-2</v>
+      </c>
+      <c r="E38" s="2">
+        <f>D38/$D$45</f>
+        <v>0.20962167872361073</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C39" s="2"/>
+      <c r="D39" s="35">
+        <v>6.5335669496782798E-4</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" ref="E39:E44" si="2">D39/$D$45</f>
+        <v>1.1977160393810441E-2</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I39" s="2">
+        <v>3.9903969999999997E-3</v>
+      </c>
+      <c r="J39" s="2">
+        <f>I39/$I$56</f>
+        <v>3.039387875882121E-2</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M39" s="2">
+        <v>5.3245369999999998E-3</v>
+      </c>
+      <c r="N39" s="2">
+        <f>M39/$M$55</f>
+        <v>8.1468629654537314E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C40" s="2"/>
+      <c r="D40" s="35">
+        <v>1.1933226999999999E-2</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="2"/>
+        <v>0.21875672951019079</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2">
+        <v>3.9903969999999997E-3</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" ref="J40:J55" si="3">I40/$I$56</f>
+        <v>3.039387875882121E-2</v>
+      </c>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2">
+        <v>3.3135180000000001E-3</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" ref="N40:N54" si="4">M40/$M$55</f>
+        <v>5.0698825230370864E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C41" s="2"/>
+      <c r="D41" s="35">
+        <v>1.27175213587492E-4</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3313420417762714E-3</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2">
+        <v>5.8781240000000002E-3</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4772233987073765E-2</v>
+      </c>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2">
+        <v>3.3135180000000001E-3</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="4"/>
+        <v>5.0698825230370864E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C42" s="2"/>
+      <c r="D42" s="35">
+        <v>1.1933226999999999E-2</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="2"/>
+        <v>0.21875672951019079</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2">
+        <v>5.8781240000000002E-3</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="3"/>
+        <v>4.4772233987073765E-2</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2">
+        <v>5.4218080000000002E-3</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="4"/>
+        <v>8.2956934661174792E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C43" s="2"/>
+      <c r="D43" s="69">
+        <v>3.85379435113614E-6</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="2"/>
+        <v>7.0646728538675244E-5</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2">
+        <v>7.0359840000000003E-3</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="3"/>
+        <v>5.3591370644325849E-2</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2">
+        <v>3.0214410000000001E-3</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6229870851124691E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C44" s="2"/>
+      <c r="D44" s="35">
+        <v>1.8464469000000001E-2</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="2"/>
+        <v>0.3384857130918823</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2">
+        <v>6.6877320000000001E-3</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0938820267629741E-2</v>
+      </c>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2">
+        <v>3.0214410000000001E-3</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="4"/>
+        <v>4.6229870851124691E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2">
+        <f>SUM(D38:D44)</f>
+        <v>5.4550216702906454E-2</v>
+      </c>
+      <c r="E45" s="2">
+        <f>SUM(E38:E44)</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2">
+        <v>6.6877320000000001E-3</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0938820267629741E-2</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2">
+        <v>5.0863260000000004E-3</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="4"/>
+        <v>7.782385758540962E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="H46" s="2"/>
+      <c r="I46" s="2">
+        <v>1.3381308E-2</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="3"/>
+        <v>0.10192215285507791</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2">
+        <v>3.0753070000000002E-3</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="4"/>
+        <v>4.705405316124317E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="H47" s="2"/>
+      <c r="I47" s="2">
+        <v>8.5754590000000006E-3</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="3"/>
+        <v>6.5317175495882299E-2</v>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2">
+        <v>3.0753070000000002E-3</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="4"/>
+        <v>4.705405316124317E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C48" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="35">
+        <v>6.8668879999999998E-3</v>
+      </c>
+      <c r="E48">
+        <f>D48/$D$57</f>
+        <v>0.14245260039047625</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2">
+        <v>8.5754590000000006E-3</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="3"/>
+        <v>6.5317175495882299E-2</v>
+      </c>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2">
+        <v>5.1835969999999999E-3</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" si="4"/>
+        <v>7.9312162592047097E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="D49" s="35">
+        <v>5.055871E-3</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49:E56" si="5">D49/$D$57</f>
+        <v>0.10488331412843745</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2">
+        <v>3.2425376947543298E-3</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="3"/>
+        <v>2.4697617195800499E-2</v>
+      </c>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2">
+        <v>2.7832299999999998E-3</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" si="4"/>
+        <v>4.2585098781996983E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="D50" s="35">
+        <v>4.4851839999999997E-3</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="5"/>
+        <v>9.3044494686640847E-2</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2">
+        <v>3.7885459999999998E-3</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="3"/>
+        <v>2.8856429021026496E-2</v>
+      </c>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2">
+        <v>2.7832299999999998E-3</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="4"/>
+        <v>4.2585098781996983E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="D51" s="35">
+        <v>4.52594E-3</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="5"/>
+        <v>9.3889972023902549E-2</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2">
+        <v>1.013387E-2</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="3"/>
+        <v>7.7187211231778574E-2</v>
+      </c>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2">
+        <v>3.794225E-3</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="4"/>
+        <v>5.8053932454781861E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="D52" s="35">
+        <v>5.0966270000000003E-3</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="5"/>
+        <v>0.10572879146569915</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2">
+        <v>5.3280209999999996E-3</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="3"/>
+        <v>4.0582233872582939E-2</v>
+      </c>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2">
+        <v>6.9867159999999996E-3</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10690097154089272</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="D53" s="35">
+        <v>6.3369560000000004E-3</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="5"/>
+        <v>0.13145923754108571</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2">
+        <v>5.3280209999999996E-3</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="3"/>
+        <v>4.0582233872582939E-2</v>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2">
+        <v>4.586349E-3</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" si="4"/>
+        <v>7.0173907730842616E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="D54" s="35">
+        <v>4.4851839999999997E-3</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="5"/>
+        <v>9.3044494686640847E-2</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2">
+        <v>2.8449134524471901E-2</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21669010515249329</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2">
+        <v>4.586349E-3</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" si="4"/>
+        <v>7.0173907730842616E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="D55" s="35">
+        <v>5.055871E-3</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="5"/>
+        <v>0.10488331412843745</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2">
+        <v>4.338649E-3</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="3"/>
+        <v>3.3046429135517315E-2</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M55" s="2">
+        <f>SUM(M39:M54)</f>
+        <v>6.5356898999999996E-2</v>
+      </c>
+      <c r="N55" s="2">
+        <f>SUM(N39:N54)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="D56" s="35">
+        <v>6.2962010000000004E-3</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="5"/>
+        <v>0.13061378094867968</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I56" s="2">
+        <f>SUM(I39:I55)</f>
+        <v>0.13128949521922625</v>
+      </c>
+      <c r="J56" s="2">
+        <f>SUM(J39:J55)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
+        <v>203</v>
+      </c>
+      <c r="D57">
+        <f>SUM(D48:D56)</f>
+        <v>4.8204722000000005E-2</v>
+      </c>
+      <c r="E57">
+        <f>SUM(E48:E56)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C60" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" s="35">
+        <v>1.4294010000000001E-3</v>
+      </c>
+      <c r="E60">
+        <f>D60/$D$114</f>
+        <v>1.3482541235616513E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="D61" s="35">
+        <v>1.1267499999999999E-3</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ref="E61:E113" si="6">D61/$D$114</f>
+        <v>1.062784574603691E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="D62" s="35">
+        <v>1.950848E-3</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="6"/>
+        <v>1.8400986570192689E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="D63" s="35">
+        <v>1.950848E-3</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="6"/>
+        <v>1.8400986570192689E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="D64" s="35">
+        <v>2.7701050000000001E-3</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="6"/>
+        <v>2.6128465622654161E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D65" s="35">
+        <v>1.29750272562895E-3</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="6"/>
+        <v>1.2238436940800472E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D66" s="35">
+        <v>1.4294010000000001E-3</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="6"/>
+        <v>1.3482541235616513E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D67" s="35">
+        <v>1.1267499999999999E-3</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="6"/>
+        <v>1.062784574603691E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D68" s="35">
+        <v>1.950848E-3</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>1.8400986570192689E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D69" s="35">
+        <v>1.950848E-3</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>1.8400986570192689E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D70" s="35">
+        <v>2.7701050000000001E-3</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>2.6128465622654161E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D71" s="35">
+        <v>1.29750272562895E-3</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="6"/>
+        <v>1.2238436940800472E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D72" s="35">
+        <v>1.4294010000000001E-3</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="6"/>
+        <v>1.3482541235616513E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D73" s="35">
+        <v>1.1267499999999999E-3</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="6"/>
+        <v>1.062784574603691E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D74" s="35">
+        <v>1.950848E-3</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="6"/>
+        <v>1.8400986570192689E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D75" s="35">
+        <v>1.950848E-3</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="6"/>
+        <v>1.8400986570192689E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D76" s="35">
+        <v>2.7701050000000001E-3</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="6"/>
+        <v>2.6128465622654161E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D77" s="35">
+        <v>1.29750272562895E-3</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="6"/>
+        <v>1.2238436940800472E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D78" s="35">
+        <v>1.1267499999999999E-3</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="6"/>
+        <v>1.062784574603691E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D79" s="35">
+        <v>8.24098E-4</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="6"/>
+        <v>7.7731408241557805E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D80" s="35">
+        <v>1.648196E-3</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="6"/>
+        <v>1.5546281648311561E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D81" s="35">
+        <v>1.648196E-3</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="6"/>
+        <v>1.5546281648311561E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D82" s="35">
+        <v>2.4674530000000001E-3</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="6"/>
+        <v>2.3273760700773031E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D83" s="35">
+        <v>1.2562105183973899E-3</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="6"/>
+        <v>1.1848956391459083E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D84" s="35">
+        <v>1.950848E-3</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="6"/>
+        <v>1.8400986570192689E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D85" s="35">
+        <v>1.648196E-3</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="6"/>
+        <v>1.5546281648311561E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D86" s="35">
+        <v>2.4722939999999999E-3</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="6"/>
+        <v>2.3319422472467339E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D87" s="35">
+        <v>2.4722939999999999E-3</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="6"/>
+        <v>2.3319422472467339E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D88" s="35">
+        <v>3.2915510000000002E-3</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="6"/>
+        <v>3.1046901524928811E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D89" s="35">
+        <v>1.2590961255833199E-3</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="6"/>
+        <v>1.1876174308526506E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D90" s="35">
+        <v>1.950848E-3</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="6"/>
+        <v>1.8400986570192689E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D91" s="35">
+        <v>1.648196E-3</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="6"/>
+        <v>1.5546281648311561E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D92" s="35">
+        <v>2.4722939999999999E-3</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="6"/>
+        <v>2.3319422472467339E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D93" s="35">
+        <v>2.4722939999999999E-3</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="6"/>
+        <v>2.3319422472467339E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D94" s="35">
+        <v>3.2915510000000002E-3</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="6"/>
+        <v>3.1046901524928811E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D95" s="35">
+        <v>1.2590961255833199E-3</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="6"/>
+        <v>1.1876174308526506E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D96" s="35">
+        <v>1.950848E-3</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="6"/>
+        <v>1.8400986570192689E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D97" s="35">
+        <v>1.648196E-3</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="6"/>
+        <v>1.5546281648311561E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D98" s="35">
+        <v>2.4722939999999999E-3</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="6"/>
+        <v>2.3319422472467339E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D99" s="35">
+        <v>2.4722939999999999E-3</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="6"/>
+        <v>2.3319422472467339E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D100" s="35">
+        <v>3.2915510000000002E-3</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="6"/>
+        <v>3.1046901524928811E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D101" s="35">
+        <v>1.2590961255833199E-3</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="6"/>
+        <v>1.1876174308526506E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D102" s="35">
+        <v>1.950848E-3</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="6"/>
+        <v>1.8400986570192689E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D103" s="35">
+        <v>1.648196E-3</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="6"/>
+        <v>1.5546281648311561E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D104" s="35">
+        <v>2.4722939999999999E-3</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="6"/>
+        <v>2.3319422472467339E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D105" s="35">
+        <v>2.4722939999999999E-3</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="6"/>
+        <v>2.3319422472467339E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D106" s="35">
+        <v>3.2915510000000002E-3</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="6"/>
+        <v>3.1046901524928811E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D107" s="35">
+        <v>1.2590961255833199E-3</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="6"/>
+        <v>1.1876174308526506E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D108" s="35">
+        <v>1.950848E-3</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="6"/>
+        <v>1.8400986570192689E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D109" s="35">
+        <v>1.648196E-3</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="6"/>
+        <v>1.5546281648311561E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D110" s="35">
+        <v>2.4722939999999999E-3</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="6"/>
+        <v>2.3319422472467339E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D111" s="35">
+        <v>2.4722939999999999E-3</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="6"/>
+        <v>2.3319422472467339E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D112" s="35">
+        <v>3.2915510000000002E-3</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="6"/>
+        <v>3.1046901524928811E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D113" s="35">
+        <v>1.2590961255833199E-3</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="6"/>
+        <v>1.1876174308526506E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C114" t="s">
+        <v>207</v>
+      </c>
+      <c r="D114">
+        <f>SUM(D60:D113)</f>
+        <v>0.1060186633232009</v>
+      </c>
+      <c r="E114">
+        <f>SUM(E60:E113)</f>
+        <v>0.99999999999999933</v>
       </c>
     </row>
   </sheetData>
@@ -4284,165 +5782,968 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA410950-D289-4EA7-91EB-1B1B634E8168}">
-  <dimension ref="D4:I21"/>
+  <dimension ref="B3:J29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="28.53125" customWidth="1"/>
+    <col min="3" max="3" width="17.265625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.796875" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="64">
+        <v>265.35000000000002</v>
+      </c>
+      <c r="F4" s="44">
+        <f t="shared" ref="F4:F20" si="0">1/$D$28</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G4" s="64">
+        <f>(F4/E4)*1000</f>
+        <v>0.1570253124803718</v>
+      </c>
+      <c r="H4" s="55"/>
+      <c r="J4">
+        <f>0.04/0.00022751</f>
+        <v>175.81644762867566</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="64">
+        <v>443.41</v>
+      </c>
+      <c r="F5" s="44">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G5" s="64">
+        <f t="shared" ref="G5:G27" si="1">(F5/E5)*1000</f>
+        <v>9.3968712177593339E-2</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="64">
+        <v>399.44</v>
+      </c>
+      <c r="F6" s="44">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G6" s="64">
+        <f t="shared" si="1"/>
+        <v>0.10431270445290072</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="64">
+        <v>376.36</v>
+      </c>
+      <c r="F7" s="44">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G7" s="64">
+        <f t="shared" si="1"/>
+        <v>0.11070960427959045</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="64">
+        <v>247.14</v>
+      </c>
+      <c r="F8" s="44">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G8" s="64">
+        <f t="shared" si="1"/>
+        <v>0.16859539802001564</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="64">
+        <v>745.42</v>
+      </c>
+      <c r="F9" s="44">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G9" s="64">
+        <f t="shared" si="1"/>
+        <v>5.5896899287202734E-2</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="64">
+        <v>662.42</v>
+      </c>
+      <c r="F10" s="44">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G10" s="64">
+        <f t="shared" si="1"/>
+        <v>6.2900677314493322E-2</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="64">
+        <v>306.31</v>
+      </c>
+      <c r="F11" s="44">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G11" s="64">
+        <f t="shared" si="1"/>
+        <v>0.13602777142981509</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="64">
+        <v>454.33</v>
+      </c>
+      <c r="F12" s="44">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G12" s="64">
+        <f t="shared" si="1"/>
+        <v>9.1710137271733466E-2</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="64">
+        <v>783.53</v>
+      </c>
+      <c r="F13" s="44">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G13" s="64">
+        <f t="shared" si="1"/>
+        <v>5.317813825465096E-2</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="64">
+        <v>763.5</v>
+      </c>
+      <c r="F14" s="44">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G14" s="64">
+        <f t="shared" si="1"/>
+        <v>5.4573237284435715E-2</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B15" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="64">
+        <v>243.3</v>
+      </c>
+      <c r="F15" s="44">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G15" s="64">
+        <f t="shared" si="1"/>
+        <v>0.17125633648444991</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B16" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="64">
+        <v>176.12</v>
+      </c>
+      <c r="F16" s="44">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G16" s="64">
+        <f t="shared" si="1"/>
+        <v>0.23658111893406009</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B17" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="64">
+        <v>616.49</v>
+      </c>
+      <c r="F17" s="44">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G17" s="64">
+        <f t="shared" si="1"/>
+        <v>6.7586930309764412E-2</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B18" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="64">
+        <v>1579.58</v>
+      </c>
+      <c r="F18" s="44">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G18" s="64">
+        <f t="shared" si="1"/>
+        <v>2.6378319975352095E-2</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B19" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="64">
+        <v>473.44</v>
+      </c>
+      <c r="F19" s="44">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G19" s="64">
+        <f t="shared" si="1"/>
+        <v>8.8008336149600089E-2</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B20" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="64">
+        <v>430.71</v>
+      </c>
+      <c r="F20" s="44">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G20" s="64">
+        <f t="shared" si="1"/>
+        <v>9.6739492156361975E-2</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B21" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="64">
+        <v>751.2</v>
+      </c>
+      <c r="F21" s="44">
+        <f t="shared" ref="F21:F25" si="2">1/$D$28</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G21" s="64">
+        <f t="shared" si="1"/>
+        <v>5.5466808661696836E-2</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B22" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="64">
+        <v>175.82</v>
+      </c>
+      <c r="F22" s="44">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G22" s="64">
+        <f t="shared" si="1"/>
+        <v>0.23698479505554923</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="64">
+        <v>175.82</v>
+      </c>
+      <c r="F23" s="44">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G23" s="64">
+        <f t="shared" si="1"/>
+        <v>0.23698479505554923</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B24" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="64">
+        <v>206.33</v>
+      </c>
+      <c r="F24" s="44">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G24" s="64">
+        <f t="shared" si="1"/>
+        <v>0.20194187305126091</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B25" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="64">
+        <v>452.71</v>
+      </c>
+      <c r="F25" s="44">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G25" s="64">
+        <f t="shared" si="1"/>
+        <v>9.2038317392296759E-2</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B26" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="64">
+        <v>425.31</v>
+      </c>
+      <c r="F26" s="44">
+        <f>1/$D$28</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G26" s="64">
+        <f t="shared" si="1"/>
+        <v>9.7967756851864901E-2</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B27" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="64">
+        <v>797.2</v>
+      </c>
+      <c r="F27" s="44">
+        <f>1/$D$28</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G27" s="64">
+        <f t="shared" si="1"/>
+        <v>5.2266265261749455E-2</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28">
+        <f>SUM(D4:D27)</f>
+        <v>24</v>
+      </c>
+      <c r="E28" s="44">
+        <f>SUM(E4:E27)</f>
+        <v>11951.239999999998</v>
+      </c>
+      <c r="F28" s="44">
+        <f>SUM(F4:F27)</f>
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C27" r:id="rId1" location="query=C54H84O4" tooltip="Find all compounds that have this formula" display="https://pubchem.ncbi.nlm.nih.gov/ - query=C54H84O4" xr:uid="{CF9F9BF0-CFC1-475F-8CEC-0CD842516203}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE5902F-563B-4582-B54A-17DC48946435}">
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.796875" customWidth="1"/>
+    <col min="7" max="7" width="20.46484375" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="59"/>
-    </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+    <row r="1" spans="1:15" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="A1" s="58"/>
+      <c r="E1" s="60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>208</v>
+      </c>
+      <c r="N10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="F11" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="M11" t="s">
+        <v>216</v>
+      </c>
+      <c r="N11">
+        <v>3.8700000000000002E-3</v>
+      </c>
+      <c r="O11">
+        <f>N11/Total!$K$5</f>
+        <v>3.4036650000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12">
+        <v>1.4117088702261999E-3</v>
+      </c>
+      <c r="H12">
+        <f>G12/Total!$K$9</f>
+        <v>3.1039948784098569E-2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>217</v>
+      </c>
+      <c r="N12">
+        <v>2.1796932107962098E-3</v>
+      </c>
+      <c r="O12">
+        <f>N12/Total!$K$5</f>
+        <v>1.9170401788952667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="71">
+        <v>9.8855254676355405E-6</v>
+      </c>
+      <c r="H13">
+        <f>G13/Total!$K$9</f>
+        <v>2.1735799121963645E-4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>218</v>
+      </c>
+      <c r="N13">
+        <v>3.8700000000000002E-3</v>
+      </c>
+      <c r="O13">
+        <f>N13/Total!$K$5</f>
+        <v>3.4036650000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="F14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14">
+        <v>7.8428270568121992E-3</v>
+      </c>
+      <c r="H14">
+        <f>G14/Total!$K$9</f>
+        <v>0.17244415991165823</v>
+      </c>
+      <c r="M14" t="s">
+        <v>219</v>
+      </c>
+      <c r="N14">
+        <v>2.1796932107962098E-3</v>
+      </c>
+      <c r="O14">
+        <f>N14/Total!$K$5</f>
+        <v>1.9170401788952667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="F15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15">
+        <v>1.4340640514780499E-2</v>
+      </c>
+      <c r="H15">
+        <f>G15/Total!$K$9</f>
+        <v>0.31531483331873622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16">
+        <v>3.5292721755654901E-4</v>
+      </c>
+      <c r="H16">
+        <f>G16/Total!$K$9</f>
+        <v>7.7599871960246213E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17">
+        <v>5.0418173936649904E-4</v>
+      </c>
+      <c r="H17">
+        <f>G17/Total!$K$9</f>
+        <v>1.1085695994320898E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18">
+        <v>3.0250904361989899E-4</v>
+      </c>
+      <c r="H18">
+        <f>G18/Total!$K$9</f>
+        <v>6.6514175965925286E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19">
+        <v>5.5459991330314895E-4</v>
+      </c>
+      <c r="H19">
+        <f>G19/Total!$K$9</f>
+        <v>1.2194265593752987E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F20" t="s">
+        <v>215</v>
+      </c>
+      <c r="G20">
+        <v>6.5543626117644898E-4</v>
+      </c>
+      <c r="H20">
+        <f>G20/Total!$K$9</f>
+        <v>1.4411404792617171E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F23" s="44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="71">
+        <v>2.2328774383212901E-7</v>
+      </c>
+      <c r="H24" s="71">
+        <f>G24/Total!$K$9</f>
+        <v>4.9095392675089368E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="71">
+        <v>1.9936405699297199E-7</v>
+      </c>
+      <c r="H25" s="71">
+        <f>G25/Total!$K$9</f>
+        <v>4.3835172031329718E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26">
+        <v>2.0167269574660002E-2</v>
+      </c>
+      <c r="H26" s="71">
+        <f>G26/Total!$K$9</f>
+        <v>0.44342783977283678</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F27" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27">
+        <v>8.8250095475571992E-3</v>
+      </c>
+      <c r="H27" s="71">
+        <f>G27/Total!$K$9</f>
+        <v>0.19403989742691391</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="71">
+        <v>5.5821935958032298E-8</v>
+      </c>
+      <c r="H28" s="71">
+        <f>G28/Total!$K$9</f>
+        <v>1.227384816877235E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="71">
+        <v>7.9745622797188999E-8</v>
+      </c>
+      <c r="H29" s="71">
+        <f>G29/Total!$K$9</f>
+        <v>1.7534068812531931E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="71">
+        <v>4.7847373678313402E-8</v>
+      </c>
+      <c r="H30" s="71">
+        <f>G30/Total!$K$9</f>
+        <v>1.0520441287519158E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="71">
+        <v>8.7720185076907895E-8</v>
+      </c>
+      <c r="H31" s="71">
+        <f>G31/Total!$K$9</f>
+        <v>1.9287475693785123E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F32" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" s="71">
+        <v>1.03669309636346E-7</v>
+      </c>
+      <c r="H32" s="71">
+        <f>G32/Total!$K$9</f>
+        <v>2.2794289456291579E-6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4450,78 +6751,134 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE5902F-563B-4582-B54A-17DC48946435}">
-  <dimension ref="A1:M9"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30516A47-050E-45E2-A497-13628A00B663}">
+  <dimension ref="B5:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="62"/>
-      <c r="E1" s="64" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="M2" s="63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>118</v>
-      </c>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D5">
+        <f>C5/Total!K4</f>
+        <v>4.1602904564315354E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>132</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="K11">
+        <f>0.022/0.087</f>
+        <v>0.25287356321839083</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>230</v>
+      </c>
+      <c r="K12">
+        <f>0.077/0.04</f>
+        <v>1.925</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
